--- a/new_data/TWII/TWII_2019/TWII_2019_list.xlsx
+++ b/new_data/TWII/TWII_2019/TWII_2019_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Time_Series_Research\new_data\TWII\TWII_2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C794B1C1-2E38-4DF5-B640-633F1F50EF0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94DE3C8-E533-4F85-8AC4-9F568570B20D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="30">
   <si>
     <t>Volume</t>
   </si>
@@ -125,6 +125,10 @@
   </si>
   <si>
     <t xml:space="preserve">  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bias_24 _L1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -591,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1011,6 +1015,11 @@
         <v>24</v>
       </c>
     </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H25" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
